--- a/data/tc_all.xlsx
+++ b/data/tc_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwenzhi/Documents/test_data/papper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwenzhi/doc_markdown/论文/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3AE304-2E84-8545-BCCA-CC1D3B82CCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A05C4-AACF-4240-8821-7E9D72C4B4A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="3600" windowWidth="27040" windowHeight="15940" xr2:uid="{4D77EE7D-9ABA-F045-9C7B-10303B868196}"/>
   </bookViews>
@@ -154,7 +154,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -165,11 +165,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -329,7 +329,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -340,11 +340,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="92D050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -504,10 +504,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -518,17 +515,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -699,7 +690,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -863,7 +854,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -874,11 +865,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1038,10 +1029,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1052,17 +1040,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1481,11 +1463,11 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln cmpd="sng">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1555,7 +1537,2933 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>T_1B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C_1B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>T_256B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C_256B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>T_4096B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>C_4096B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8F87-0C47-99A4-D0A02D8690AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47088607"/>
+        <c:axId val="46831535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47088607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Concurrency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46831535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46831535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>time (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47088607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>T_1B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C_1B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>T_256B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C_256B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>T_4096B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>C_4096B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2460-294F-95D4-14558B37D728}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47088607"/>
+        <c:axId val="46831535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47088607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Concurrency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46831535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46831535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>time (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47088607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81246356741744497"/>
+          <c:y val="5.0714659359250389E-2"/>
+          <c:w val="0.16815658762131477"/>
+          <c:h val="0.77137196053720503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2111,6 +5019,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2118,7 +6058,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -2144,6 +6084,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40132</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECBEDF2-39D1-E148-9B98-4D46B25B6A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>40132</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90B3EC7-D4A0-8E45-96D5-04588572AEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2451,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0456EC0-709B-CD42-BC4F-690DA9B25239}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="M58" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="X79" sqref="X79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
